--- a/bot_unemployment_scrap/report/unemployment_final_report.xlsx
+++ b/bot_unemployment_scrap/report/unemployment_final_report.xlsx
@@ -467,14 +467,14 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>96.65000000000001</v>
+      </c>
+      <c r="C2" t="n">
         <v>96.73</v>
       </c>
-      <c r="C2" t="n">
-        <v>96.97</v>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -513,14 +513,14 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>94</v>
+      </c>
+      <c r="C4" t="n">
         <v>93.8</v>
       </c>
-      <c r="C4" t="n">
-        <v>92.90000000000001</v>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -532,18 +532,18 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Filipinas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.65000000000001</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
-        <v>92.66</v>
+        <v>94.3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -555,18 +555,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Filipinas</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.59999999999999</v>
+        <v>93.65000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>93.59999999999999</v>
+        <v>92.66</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -628,14 +628,14 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>87.34999999999999</v>
+      </c>
+      <c r="C9" t="n">
         <v>87.48</v>
       </c>
-      <c r="C9" t="n">
-        <v>87.43000000000001</v>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -693,18 +693,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Islândia</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="n">
-        <v>77.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -716,18 +716,18 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>Finlândia</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>76.90000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -739,18 +739,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Islândia</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>76.7</v>
+        <v>78</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -762,14 +762,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Reino Unido</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>75.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -785,18 +785,18 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bolívia</t>
+          <t>Reino Unido</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>73.59999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -808,18 +808,18 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>República Tcheca</t>
+          <t>Bolívia</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75</v>
+        <v>75.2</v>
       </c>
       <c r="C17" t="n">
-        <v>75.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -831,18 +831,18 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Finlândia</t>
+          <t>República Tcheca</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74.7</v>
+        <v>75</v>
       </c>
       <c r="C18" t="n">
-        <v>72.7</v>
+        <v>75.3</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -992,18 +992,18 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Luxemburgo</t>
+          <t>Noruega</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.59999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="C25" t="n">
-        <v>69.40000000000001</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1015,14 +1015,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Eslováquia</t>
+          <t>Luxemburgo</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>70.59999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>70.8</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1038,14 +1038,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Noruega</t>
+          <t>Eslováquia</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>69.90000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>69.8</v>
+        <v>70.8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1088,14 +1088,14 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C29" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="C29" t="n">
-        <v>68.8</v>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1222,18 +1222,18 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Croácia</t>
+          <t>Austrália</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64.2</v>
+        <v>64.42</v>
       </c>
       <c r="C35" t="n">
-        <v>64.09999999999999</v>
+        <v>64.06</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1245,18 +1245,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ucrânia</t>
+          <t>Croácia</t>
         </is>
       </c>
       <c r="B36" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="C36" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c r="C36" t="n">
-        <v>65.59999999999999</v>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1268,18 +1268,18 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Hungria</t>
+          <t>Ucrânia</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.99</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>63.84</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1291,18 +1291,18 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Austrália</t>
+          <t>Hungria</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>63.8</v>
+        <v>64.01000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>63.4</v>
+        <v>63.99</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1387,14 +1387,14 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="C42" t="n">
         <v>61.7</v>
       </c>
-      <c r="C42" t="n">
-        <v>61.9</v>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1429,18 +1429,18 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>61.2</v>
+        <v>61.3</v>
       </c>
       <c r="C44" t="n">
-        <v>60.5</v>
+        <v>61</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1452,18 +1452,18 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>61</v>
+        <v>61.2</v>
       </c>
       <c r="C45" t="n">
-        <v>60.9</v>
+        <v>60.5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1498,18 +1498,18 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Estados Unidos</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>59.9</v>
+        <v>60</v>
       </c>
       <c r="C47" t="n">
         <v>59.9</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1521,18 +1521,18 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>59.9</v>
       </c>
       <c r="C48" t="n">
-        <v>60.1</v>
+        <v>59.9</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1551,11 +1551,11 @@
         <v>59.8</v>
       </c>
       <c r="C49" t="n">
-        <v>59.7</v>
+        <v>59.8</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1567,18 +1567,18 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Colômbia</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>56.99</v>
+        <v>56.8</v>
       </c>
       <c r="C50" t="n">
-        <v>56.47</v>
+        <v>56.4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1620,11 +1620,11 @@
         <v>56.7</v>
       </c>
       <c r="C52" t="n">
-        <v>56.9</v>
+        <v>56.7</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1636,18 +1636,18 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Colômbia</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>56.4</v>
+        <v>56.5</v>
       </c>
       <c r="C53" t="n">
-        <v>55.8</v>
+        <v>56.99</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1755,14 +1755,14 @@
         </is>
       </c>
       <c r="B58" t="n">
+        <v>52.62</v>
+      </c>
+      <c r="C58" t="n">
         <v>51.51</v>
       </c>
-      <c r="C58" t="n">
-        <v>51.72</v>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1778,14 +1778,14 @@
         </is>
       </c>
       <c r="B59" t="n">
+        <v>51.38</v>
+      </c>
+      <c r="C59" t="n">
         <v>50.51</v>
       </c>
-      <c r="C59" t="n">
-        <v>50.83</v>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1843,18 +1843,18 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ruanda</t>
+          <t>Turquia</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>46.5</v>
       </c>
       <c r="C62" t="n">
-        <v>41</v>
+        <v>46.7</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1866,18 +1866,18 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Turquia</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>46.5</v>
+        <v>46.16</v>
       </c>
       <c r="C63" t="n">
-        <v>46.7</v>
+        <v>46.31</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -1889,18 +1889,18 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Ruanda</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>46.16</v>
+        <v>45.5</v>
       </c>
       <c r="C64" t="n">
-        <v>46.31</v>
+        <v>46.5</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1981,18 +1981,18 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Equador</t>
+          <t>Marrocos</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="C68" t="n">
-        <v>38.3</v>
+        <v>39.1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2004,14 +2004,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Porto Rico</t>
+          <t>Equador</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>39.2</v>
+        <v>40</v>
       </c>
       <c r="C69" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2027,18 +2027,18 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Marrocos</t>
+          <t>Porto Rico</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="C70" t="n">
-        <v>39.7</v>
+        <v>38.4</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
